--- a/brynry_test_cases_Tejkoli.xlsx
+++ b/brynry_test_cases_Tejkoli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tej koli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59A856-40FE-4C44-91E8-80C355C5661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E941D3E6-7899-4CE8-A2F4-A00D4B9EB0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DB5E218-3FF2-440D-A145-D0C3101B3D84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="226">
   <si>
     <t>TC ID</t>
   </si>
@@ -395,9 +395,6 @@
     <t>TC_07</t>
   </si>
   <si>
-    <t>To Test Functionality of see current stock of the item Detalis like MRP,Tax Rate,etc</t>
-  </si>
-  <si>
     <t>"Item Timeline" section  should be displayed with current stock info</t>
   </si>
   <si>
@@ -594,6 +591,139 @@
   </si>
   <si>
     <t>"80.0" and "With tax " is displayed</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>To test functionality Verify adding sales price for an item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Internet should be active 
+2.User should be Logged in </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amul yoghurt mango</t>
+  </si>
+  <si>
+    <t>"Amul Yoghurt Mango 100gm " Should be displayed</t>
+  </si>
+  <si>
+    <t>" Amul Yoghurt Mango 100gm" displayed</t>
+  </si>
+  <si>
+    <t>Pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"PIECES" should be selected </t>
+  </si>
+  <si>
+    <t>"PIECES" is Selected</t>
+  </si>
+  <si>
+    <t>Measuring unit "PIECES" should be Saved</t>
+  </si>
+  <si>
+    <t>Measuring unit "PIECES" is Saved</t>
+  </si>
+  <si>
+    <t>"30.0" and "With tax " Should be displayed</t>
+  </si>
+  <si>
+    <t>"30.0" and "With tax " is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Item should be Added  with Purchase price "0.0"</t>
+  </si>
+  <si>
+    <t>Item is Added  with Purchase price "0.0"</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>To test functionality Verify adding purchase price for an item</t>
+  </si>
+  <si>
+    <t>"0" and "With tax " Should be displayed</t>
+  </si>
+  <si>
+    <t>"0" and "With tax " is displayed</t>
+  </si>
+  <si>
+    <t>Enter "Purcahse Price" and Selected option "With Tax"</t>
+  </si>
+  <si>
+    <t>"10" and "With tax " Should be displayed</t>
+  </si>
+  <si>
+    <t>"10" and "With tax " is displayed</t>
+  </si>
+  <si>
+    <t>Item should be Added  with sale price "0.0"</t>
+  </si>
+  <si>
+    <t>Item is Added  with sales price "0.0"</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>To test functionality of  adding new item by values empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bikano Salted Cashew 100GM</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>"none" should be selected</t>
+  </si>
+  <si>
+    <t>"none"  is selected</t>
+  </si>
+  <si>
+    <t>empty fiekd "With tax " Should be displayed</t>
+  </si>
+  <si>
+    <t>empty fiekd "With tax " is be displayed</t>
+  </si>
+  <si>
+    <t>Empty field should displayed</t>
+  </si>
+  <si>
+    <t>Empty field is displayed</t>
+  </si>
+  <si>
+    <t>Item should be Added with "0.0" Sales price,purchase price,stock quantity,stock value</t>
+  </si>
+  <si>
+    <t>Item is  Added with "0.0" Sales price,purchase price,stock quantity,stock value</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>To test functionality of  adding new item Without Item Name</t>
+  </si>
+  <si>
+    <t>Empty field Should be displayed</t>
+  </si>
+  <si>
+    <t>Empty field is be displayed</t>
+  </si>
+  <si>
+    <t>"Please enter  Item name" in red colour message should appeared below "Item Name".</t>
+  </si>
+  <si>
+    <t>"Please enter  Item name" in red colour message is appeared below "Item Name".</t>
+  </si>
+  <si>
+    <t>To Test Functionality of see current stock of the item Detalis like ,Tax Rate,etc</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFAD946-F100-440A-A9F4-FCD98C787020}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="5">
-        <v>7447371278</v>
+        <v>7444113142</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>27</v>
@@ -2095,10 +2225,10 @@
         <v>114</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>20</v>
@@ -2109,7 +2239,7 @@
         <v>115</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>34</v>
@@ -2181,13 +2311,13 @@
         <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>20</v>
@@ -2195,10 +2325,10 @@
     </row>
     <row r="54" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>34</v>
@@ -2250,13 +2380,13 @@
         <v>98</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>20</v>
@@ -2270,13 +2400,13 @@
         <v>4</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>20</v>
@@ -2290,13 +2420,13 @@
         <v>5</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>20</v>
@@ -2310,16 +2440,16 @@
         <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F59" s="7">
         <v>45372</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>26</v>
@@ -2333,16 +2463,16 @@
         <v>7</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F60" s="1">
         <v>40</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>26</v>
@@ -2356,16 +2486,16 @@
         <v>8</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>20</v>
@@ -2382,10 +2512,10 @@
         <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>20</v>
@@ -2393,10 +2523,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>34</v>
@@ -2448,13 +2578,13 @@
         <v>98</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>20</v>
@@ -2468,13 +2598,13 @@
         <v>4</v>
       </c>
       <c r="E66" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="H66" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>20</v>
@@ -2488,13 +2618,13 @@
         <v>5</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>20</v>
@@ -2508,16 +2638,16 @@
         <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F68" s="7">
         <v>45372</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>26</v>
@@ -2531,16 +2661,16 @@
         <v>7</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F69" s="1">
         <v>10</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>26</v>
@@ -2554,16 +2684,16 @@
         <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>20</v>
@@ -2580,10 +2710,10 @@
         <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>20</v>
@@ -2591,10 +2721,10 @@
     </row>
     <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>34</v>
@@ -2657,13 +2787,13 @@
         <v>49</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>20</v>
@@ -2731,13 +2861,13 @@
         <v>61</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>20</v>
@@ -2751,10 +2881,10 @@
         <v>81</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>20</v>
@@ -2771,10 +2901,10 @@
         <v>150</v>
       </c>
       <c r="G81" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>20</v>
@@ -2791,10 +2921,10 @@
         <v>115</v>
       </c>
       <c r="G82" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>20</v>
@@ -2848,10 +2978,10 @@
         <v>100</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>20</v>
@@ -2896,10 +3026,10 @@
     </row>
     <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>34</v>
@@ -2962,13 +3092,13 @@
         <v>49</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>20</v>
@@ -2982,13 +3112,13 @@
         <v>50</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>20</v>
@@ -3036,13 +3166,13 @@
         <v>61</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>20</v>
@@ -3056,16 +3186,16 @@
         <v>81</v>
       </c>
       <c r="G96" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="I96" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D97" s="1">
         <v>10</v>
       </c>
@@ -3076,16 +3206,16 @@
         <v>80</v>
       </c>
       <c r="G97" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="I97" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D98" s="1">
         <v>11</v>
       </c>
@@ -3105,7 +3235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D99" s="1">
         <v>12</v>
       </c>
@@ -3122,8 +3252,1045 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F102" s="7"/>
+    <row r="100" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D101" s="1">
+        <v>2</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D103" s="1">
+        <v>4</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D104" s="1">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D105" s="1">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D106" s="1">
+        <v>7</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D107" s="1">
+        <v>8</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D108" s="1">
+        <v>9</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D109" s="1">
+        <v>10</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F109" s="1">
+        <v>30</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D110" s="1">
+        <v>11</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D112" s="1">
+        <v>2</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D113" s="1">
+        <v>3</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D114" s="1">
+        <v>4</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D115" s="1">
+        <v>5</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D116" s="1">
+        <v>6</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D117" s="1">
+        <v>7</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D118" s="1">
+        <v>8</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D119" s="1">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D120" s="1">
+        <v>10</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D121" s="1">
+        <v>11</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F121" s="1">
+        <v>10</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D122" s="1">
+        <v>12</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D124" s="1">
+        <v>2</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D125" s="1">
+        <v>3</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D126" s="1">
+        <v>4</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D127" s="1">
+        <v>5</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D128" s="1">
+        <v>6</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D129" s="1">
+        <v>7</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D130" s="1">
+        <v>8</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D131" s="1">
+        <v>9</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D132" s="1">
+        <v>10</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D133" s="1">
+        <v>11</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D134" s="1">
+        <v>12</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D135" s="1">
+        <v>13</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D136" s="1">
+        <v>14</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D137" s="1">
+        <v>15</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F137" s="7">
+        <v>45371</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D138" s="1">
+        <v>16</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D140" s="1">
+        <v>2</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D141" s="1">
+        <v>3</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D142" s="1">
+        <v>4</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D143" s="1">
+        <v>5</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D144" s="1">
+        <v>6</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D145" s="1">
+        <v>7</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D146" s="1">
+        <v>8</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D147" s="1">
+        <v>9</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D148" s="1">
+        <v>10</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F148" s="1">
+        <v>150</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D149" s="1">
+        <v>11</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F149" s="1">
+        <v>115</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D150" s="1">
+        <v>12</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D151" s="1">
+        <v>13</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D152" s="1">
+        <v>14</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F152" s="1">
+        <v>100</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D153" s="1">
+        <v>15</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F153" s="7">
+        <v>45371</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="4:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D154" s="1">
+        <v>16</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -3160,8 +4327,10 @@
     <hyperlink ref="F41" r:id="rId2" display="GST@ 18%" xr:uid="{9FA5C2AB-1467-4B4D-87DA-FF1EFB539746}"/>
     <hyperlink ref="F83" r:id="rId3" display="GST@ 18%" xr:uid="{6496AA0A-6891-4ADD-BD8F-D21E2B166BEE}"/>
     <hyperlink ref="F98" r:id="rId4" display="GST@ 18%" xr:uid="{A733F614-90DF-4B27-93D3-F1C5BFB23D1E}"/>
+    <hyperlink ref="F134" r:id="rId5" display="GST@ 18%" xr:uid="{B40D2E5A-4B4A-42A6-8BAC-F8F1CC2E69B2}"/>
+    <hyperlink ref="F150" r:id="rId6" display="GST@ 18%" xr:uid="{F0B415CA-09C1-4CD2-A12D-D2642D0BA27C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/brynry_test_cases_Tejkoli.xlsx
+++ b/brynry_test_cases_Tejkoli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tej koli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E941D3E6-7899-4CE8-A2F4-A00D4B9EB0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9F6CDF-84F4-4EED-BFD1-230BF5A5ADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DB5E218-3FF2-440D-A145-D0C3101B3D84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="309">
   <si>
     <t>TC ID</t>
   </si>
@@ -551,6 +551,12 @@
     <t>TC_11</t>
   </si>
   <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
     <t>To test functionality of  adding new item by Item Type "Service"</t>
   </si>
   <si>
@@ -645,6 +651,9 @@
     <t>TC_13</t>
   </si>
   <si>
+    <t>TC_23</t>
+  </si>
+  <si>
     <t>To test functionality Verify adding purchase price for an item</t>
   </si>
   <si>
@@ -708,6 +717,9 @@
     <t>TC_15</t>
   </si>
   <si>
+    <t>TC_25</t>
+  </si>
+  <si>
     <t>To test functionality of  adding new item Without Item Name</t>
   </si>
   <si>
@@ -724,6 +736,245 @@
   </si>
   <si>
     <t>To Test Functionality of see current stock of the item Detalis like ,Tax Rate,etc</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test functionlity of adding MRP  option    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the "Setting" icon at Top-right corner of Item screen </t>
+  </si>
+  <si>
+    <t>User screen should be directed to the "Item Settings" screen.</t>
+  </si>
+  <si>
+    <t>User screen is directed to the "Item Settings" screen.</t>
+  </si>
+  <si>
+    <t>click on  "Add/Remove Columns "option</t>
+  </si>
+  <si>
+    <t>User screen should be directed to the "Add/Remove Colums" screen.</t>
+  </si>
+  <si>
+    <t>User screen is directed to the "Add/Remove Colums" screen.</t>
+  </si>
+  <si>
+    <t>Selected "MRP +"  option</t>
+  </si>
+  <si>
+    <t>"MRP +" option should be selected</t>
+  </si>
+  <si>
+    <t>MRP + option is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "&lt;-" button at Top-Left  of screen </t>
+  </si>
+  <si>
+    <t>"Successfully Updated "message should be appeared and user screen should be directed to " Item Settings"Screen</t>
+  </si>
+  <si>
+    <t>"Successfully Updated "message is be appeared and user screen should be directed to " Item Settings "Screen</t>
+  </si>
+  <si>
+    <t>1.User Screen Should be directed to "item"screen.
+2."MRP" field Should be added.</t>
+  </si>
+  <si>
+    <t>1.User Screen is  directed to "item"screen.
+2."MRP" field is be added.</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test filter functionality of "A to Z  </t>
+  </si>
+  <si>
+    <t>Selected "Filter by" at top -right of screen</t>
+  </si>
+  <si>
+    <t>"Sort &amp; Filter " Section should Pop-up</t>
+  </si>
+  <si>
+    <t>"Sort &amp; Filter " Section is Pop-up</t>
+  </si>
+  <si>
+    <t>Selected "Item name -A to Z" option</t>
+  </si>
+  <si>
+    <t>Item name -A to Z option should be selected</t>
+  </si>
+  <si>
+    <t>Item name -A to Z option is selected</t>
+  </si>
+  <si>
+    <t>Click on "Apply" botton at bottom of screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item should be sorted by "A to Z " order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item  issorted by "A to Z " order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test filter functionality of "Z to A  </t>
+  </si>
+  <si>
+    <t>Selected "Item name -Z to A" option</t>
+  </si>
+  <si>
+    <t>Item name -Z to A option should be selected</t>
+  </si>
+  <si>
+    <t>Item name -Z to A option is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item should be sorted by "Z to A " order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item  issorted by "Z to A " order </t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>Selected "Quantiy - Low To High" option</t>
+  </si>
+  <si>
+    <t>Quantiy - Low To High option should be selected</t>
+  </si>
+  <si>
+    <t>Quantiy - Low To High option is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test filter functionality of "Low To High  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item should be sorted by "Low To High " order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item  issorted by "Low To High " order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test filter functionality of "High to Low  </t>
+  </si>
+  <si>
+    <t>Selected "Quantiy - High to Low" option</t>
+  </si>
+  <si>
+    <t>Quantiy - High to Low option should be selected</t>
+  </si>
+  <si>
+    <t>Quantiy - High to Low option is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item should be sorted by "High to Low " order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item  issorted by "High to Low " order </t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test filter functionality of "In Stock  </t>
+  </si>
+  <si>
+    <t>Quantiy - In Stock option is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item should be sorted by "In Stock " order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item  issorted by "In Stock " order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test filter functionality of "Not in Stock  </t>
+  </si>
+  <si>
+    <t>Quantiy - Not in Stock option is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item should be sorted by "Not in Stock " order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item  issorted by "Not in Stock " order </t>
+  </si>
+  <si>
+    <t>Selected "Not in Stock" option</t>
+  </si>
+  <si>
+    <t>Selected " In Stock" option</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In Stock option should be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not in Stock option should be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test filter functionality of "in Online Store  </t>
+  </si>
+  <si>
+    <t>Selected "in Online Store" option</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in Online Store option should be selected</t>
+  </si>
+  <si>
+    <t>Quantiy - in Online Store option is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item should be sorted by "in Online Store " order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item  issorted by "in Online Store " order </t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>click on "🔍" at top-right corner</t>
+  </si>
+  <si>
+    <t>Keypad should pop-up</t>
+  </si>
+  <si>
+    <t>keypad  is pop up</t>
+  </si>
+  <si>
+    <t>Enter item name which valid</t>
+  </si>
+  <si>
+    <t>amul</t>
+  </si>
+  <si>
+    <t>item with amul name is apppeared</t>
+  </si>
+  <si>
+    <t>item with "amul" name sholud apppear</t>
+  </si>
+  <si>
+    <t>to Test Item Search Functionality  with Valid item name</t>
+  </si>
+  <si>
+    <t>to Test Item Search Functionality with Invalid name</t>
+  </si>
+  <si>
+    <t>Enter item name which invalid</t>
+  </si>
+  <si>
+    <t>xxxcxdv</t>
+  </si>
+  <si>
+    <t>"No items found " should displayed</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFAD946-F100-440A-A9F4-FCD98C787020}">
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G217" sqref="G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2239,7 +2490,7 @@
         <v>115</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>34</v>
@@ -3029,7 +3280,7 @@
         <v>167</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>34</v>
@@ -3092,13 +3343,13 @@
         <v>49</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>20</v>
@@ -3112,13 +3363,13 @@
         <v>50</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>20</v>
@@ -3166,13 +3417,13 @@
         <v>61</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>20</v>
@@ -3186,10 +3437,10 @@
         <v>81</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>20</v>
@@ -3206,10 +3457,10 @@
         <v>80</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>20</v>
@@ -3254,13 +3505,13 @@
     </row>
     <row r="100" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -3320,13 +3571,13 @@
         <v>49</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>20</v>
@@ -3394,13 +3645,13 @@
         <v>61</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>20</v>
@@ -3414,10 +3665,10 @@
         <v>81</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>20</v>
@@ -3434,10 +3685,10 @@
         <v>30</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>20</v>
@@ -3451,10 +3702,10 @@
         <v>91</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>26</v>
@@ -3462,13 +3713,13 @@
     </row>
     <row r="111" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -3528,13 +3779,13 @@
         <v>49</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>20</v>
@@ -3602,13 +3853,13 @@
         <v>61</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>20</v>
@@ -3622,10 +3873,10 @@
         <v>81</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>20</v>
@@ -3642,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>20</v>
@@ -3656,16 +3907,16 @@
         <v>11</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F121" s="1">
         <v>10</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>26</v>
@@ -3679,10 +3930,10 @@
         <v>91</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>20</v>
@@ -3690,10 +3941,10 @@
     </row>
     <row r="123" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>34</v>
@@ -3756,7 +4007,7 @@
         <v>49</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>153</v>
@@ -3867,10 +4118,10 @@
         <v>71</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>20</v>
@@ -3887,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>20</v>
@@ -3904,13 +4155,13 @@
         <v>77</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>20</v>
@@ -3941,10 +4192,10 @@
         <v>85</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>20</v>
@@ -3978,10 +4229,10 @@
         <v>91</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>20</v>
@@ -3989,10 +4240,10 @@
     </row>
     <row r="139" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>34</v>
@@ -4055,13 +4306,13 @@
         <v>49</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>20</v>
@@ -4104,7 +4355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D145" s="1">
         <v>7</v>
       </c>
@@ -4121,7 +4372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D146" s="1">
         <v>8</v>
       </c>
@@ -4141,7 +4392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D147" s="1">
         <v>9</v>
       </c>
@@ -4158,7 +4409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D148" s="1">
         <v>10</v>
       </c>
@@ -4178,7 +4429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D149" s="1">
         <v>11</v>
       </c>
@@ -4198,7 +4449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D150" s="1">
         <v>12</v>
       </c>
@@ -4218,7 +4469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D151" s="1">
         <v>13</v>
       </c>
@@ -4235,7 +4486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D152" s="1">
         <v>14</v>
       </c>
@@ -4255,7 +4506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D153" s="1">
         <v>15</v>
       </c>
@@ -4275,7 +4526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="4:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D154" s="1">
         <v>16</v>
       </c>
@@ -4283,13 +4534,998 @@
         <v>91</v>
       </c>
       <c r="G154" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D156" s="1">
+        <v>2</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D157" s="1">
+        <v>3</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D158" s="1">
+        <v>4</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D159" s="1">
+        <v>5</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D160" s="1">
+        <v>6</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D161" s="1">
+        <v>7</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D163" s="1">
+        <v>2</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D164" s="1">
+        <v>3</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D165" s="1">
+        <v>4</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D166" s="1">
+        <v>5</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" s="1">
+        <v>1</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D168" s="1">
+        <v>2</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D169" s="1">
+        <v>3</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D170" s="1">
+        <v>4</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D171" s="1">
+        <v>5</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" s="1">
+        <v>1</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D173" s="1">
+        <v>2</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D174" s="1">
+        <v>3</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D175" s="1">
+        <v>4</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D176" s="1">
+        <v>5</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D178" s="1">
+        <v>2</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D179" s="1">
+        <v>3</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D180" s="1">
+        <v>4</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D181" s="1">
+        <v>5</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D183" s="1">
+        <v>2</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D184" s="1">
+        <v>3</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D185" s="1">
+        <v>4</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D186" s="1">
+        <v>5</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" s="1">
+        <v>1</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D188" s="1">
+        <v>2</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D189" s="1">
+        <v>3</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D190" s="1">
+        <v>4</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D191" s="1">
+        <v>5</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D193" s="1">
+        <v>2</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D194" s="1">
+        <v>3</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D195" s="1">
+        <v>4</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D196" s="1">
+        <v>5</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D198" s="1">
+        <v>2</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D199" s="1">
+        <v>3</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D200" s="1">
+        <v>4</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H154" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>20</v>
+      <c r="B201" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="1">
+        <v>1</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D202" s="1">
+        <v>2</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D203" s="1">
+        <v>3</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D204" s="1">
+        <v>4</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
